--- a/Documentos/PLANO DE AULA - Desenvolvimento Web.xlsx
+++ b/Documentos/PLANO DE AULA - Desenvolvimento Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="12045"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="PLANO DE AULA PADRÃO" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>PLANO DE AULA PADRÃO</t>
-  </si>
-  <si>
-    <t>CURSO: WORD BÁSICO 2016</t>
   </si>
   <si>
     <t>CARGA HORÁRIA:  40 HORAS</t>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>COMPETÊNCIA V: Criando o projeto</t>
+  </si>
+  <si>
+    <t>CURSO: Desenvolvimento Web</t>
   </si>
 </sst>
 </file>
@@ -894,25 +894,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,12 +923,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,6 +951,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -965,14 +968,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,8 +1227,8 @@
   </sheetPr>
   <dimension ref="A1:Y971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1274,19 +1274,19 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1303,17 +1303,17 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1330,21 +1330,21 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="21"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1361,19 +1361,19 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A5" s="44" t="s">
-        <v>3</v>
+      <c r="A5" s="43" t="s">
+        <v>2</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1390,17 +1390,17 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1417,17 +1417,17 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1444,19 +1444,19 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="44" t="s">
-        <v>4</v>
+      <c r="A8" s="43" t="s">
+        <v>3</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1473,19 +1473,19 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A9" s="48" t="s">
-        <v>5</v>
+      <c r="A9" s="49" t="s">
+        <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="34"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1502,19 +1502,19 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="44" t="s">
-        <v>6</v>
+      <c r="A10" s="43" t="s">
+        <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1531,19 +1531,19 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A11" s="50" t="s">
-        <v>28</v>
+      <c r="A11" s="51" t="s">
+        <v>27</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1560,17 +1560,17 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1587,19 +1587,19 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="409.6" customHeight="1">
-      <c r="A13" s="56" t="s">
-        <v>67</v>
+      <c r="A13" s="57" t="s">
+        <v>66</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1616,21 +1616,21 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>31</v>
+      <c r="A14" s="34" t="s">
+        <v>30</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="57" t="s">
-        <v>7</v>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="33" t="s">
+        <v>6</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1647,19 +1647,19 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>65</v>
+      <c r="A15" s="29" t="s">
+        <v>64</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1677,29 +1677,29 @@
     </row>
     <row r="16" spans="1:25" ht="21.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="31" t="s">
-        <v>11</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
@@ -1720,27 +1720,27 @@
       <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
@@ -1758,19 +1758,19 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A18" s="35" t="s">
-        <v>66</v>
+      <c r="A18" s="29" t="s">
+        <v>65</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1788,29 +1788,29 @@
     </row>
     <row r="19" spans="1:25" ht="21.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="31" t="s">
-        <v>11</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1"/>
@@ -1831,27 +1831,27 @@
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>33</v>
+      <c r="B20" s="21" t="s">
+        <v>32</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20" t="s">
-        <v>38</v>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
+        <v>37</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
-        <v>17</v>
+      <c r="E20" s="23"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="13"/>
@@ -1872,27 +1872,27 @@
       <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20" t="s">
-        <v>30</v>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24" t="s">
-        <v>17</v>
+      <c r="H21" s="22"/>
+      <c r="I21" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="K21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="13"/>
@@ -1913,27 +1913,27 @@
       <c r="A22" s="17">
         <v>4</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20" t="s">
-        <v>35</v>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="28" t="s">
+        <v>16</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="29" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="J22" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1"/>
@@ -1954,27 +1954,27 @@
       <c r="A23" s="17">
         <v>5</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20" t="s">
-        <v>37</v>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="28" t="s">
+        <v>16</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="29" t="s">
+      <c r="H23" s="22"/>
+      <c r="I23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
@@ -1992,21 +1992,21 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>32</v>
+      <c r="A24" s="58" t="s">
+        <v>31</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28" t="s">
-        <v>7</v>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="34" t="s">
+        <v>6</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2026,27 +2026,27 @@
       <c r="A25" s="16">
         <v>6</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20" t="s">
-        <v>40</v>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
@@ -2067,27 +2067,27 @@
       <c r="A26" s="11">
         <v>7</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>41</v>
+      <c r="B26" s="21" t="s">
+        <v>40</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20" t="s">
-        <v>47</v>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21" t="s">
+        <v>46</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1"/>
@@ -2108,27 +2108,27 @@
       <c r="A27" s="11">
         <v>8</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20" t="s">
-        <v>43</v>
+      <c r="E27" s="23"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1"/>
@@ -2149,27 +2149,27 @@
       <c r="A28" s="15">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20" t="s">
-        <v>45</v>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="J28" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1"/>
@@ -2187,30 +2187,30 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="89.25" customHeight="1">
-      <c r="A29" s="59">
+      <c r="A29" s="20">
         <v>10</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>46</v>
+      <c r="B29" s="59" t="s">
+        <v>45</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20" t="s">
-        <v>48</v>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21" t="s">
+        <v>47</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1"/>
@@ -2228,21 +2228,21 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A30" s="25" t="s">
-        <v>68</v>
+      <c r="A30" s="58" t="s">
+        <v>67</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28" t="s">
-        <v>7</v>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="34" t="s">
+        <v>6</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="2"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2262,27 +2262,27 @@
       <c r="A31" s="11">
         <v>11</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20" t="s">
-        <v>50</v>
+      <c r="E31" s="23"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24" t="s">
-        <v>17</v>
+      <c r="H31" s="22"/>
+      <c r="I31" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="12" t="s">
+      <c r="J31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1"/>
@@ -2303,27 +2303,27 @@
       <c r="A32" s="15">
         <v>12</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20" t="s">
-        <v>52</v>
+      <c r="E32" s="23"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24" t="s">
-        <v>17</v>
+      <c r="H32" s="22"/>
+      <c r="I32" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="12" t="s">
+      <c r="J32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K32" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1"/>
@@ -2344,27 +2344,27 @@
       <c r="A33" s="11">
         <v>13</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20" t="s">
-        <v>54</v>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="28" t="s">
+        <v>16</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="29" t="s">
-        <v>17</v>
+      <c r="H33" s="22"/>
+      <c r="I33" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K33" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1"/>
@@ -2385,27 +2385,27 @@
       <c r="A34" s="15">
         <v>14</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20" t="s">
-        <v>56</v>
+      <c r="E34" s="23"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1"/>
@@ -2426,27 +2426,27 @@
       <c r="A35" s="11">
         <v>15</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20" t="s">
-        <v>58</v>
+      <c r="E35" s="23"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24" t="s">
-        <v>17</v>
+      <c r="H35" s="22"/>
+      <c r="I35" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="K35" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1"/>
@@ -2464,21 +2464,21 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>69</v>
+      <c r="A36" s="58" t="s">
+        <v>68</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28" t="s">
-        <v>7</v>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="34" t="s">
+        <v>6</v>
       </c>
-      <c r="K36" s="21"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="2"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2498,27 +2498,27 @@
       <c r="A37" s="11">
         <v>16</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20" t="s">
-        <v>60</v>
+      <c r="E37" s="23"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27" t="s">
+        <v>23</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1"/>
@@ -2539,27 +2539,27 @@
       <c r="A38" s="7">
         <v>17</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>61</v>
+      <c r="B38" s="21" t="s">
+        <v>60</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20" t="s">
-        <v>63</v>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21" t="s">
+        <v>62</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="33" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="K38" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="4"/>
@@ -2580,27 +2580,27 @@
       <c r="A39" s="7">
         <v>18</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>61</v>
+      <c r="B39" s="21" t="s">
+        <v>60</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20" t="s">
-        <v>64</v>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21" t="s">
+        <v>63</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="33" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="18" t="s">
+      <c r="J39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="K39" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="4"/>
@@ -2621,27 +2621,27 @@
       <c r="A40" s="7">
         <v>19</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20" t="s">
-        <v>62</v>
+      <c r="E40" s="23"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="33" t="s">
+      <c r="H40" s="25"/>
+      <c r="I40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="18" t="s">
+      <c r="J40" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="K40" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="4"/>
@@ -2662,27 +2662,27 @@
       <c r="A41" s="7">
         <v>20</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="20" t="s">
-        <v>62</v>
+      <c r="E41" s="23"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="33" t="s">
+      <c r="H41" s="25"/>
+      <c r="I41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="18" t="s">
+      <c r="J41" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="K41" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
@@ -27811,36 +27811,37 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:H37"/>
@@ -27856,10 +27857,40 @@
     <mergeCell ref="A11:K12"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A36:I36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:F39"/>
@@ -27867,37 +27898,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
